--- a/melon_final_df.xlsx
+++ b/melon_final_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>타임캡슐</t>
+          <t>ONE MORE TIME</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>다비치</t>
+          <t>ALLDAY PROJECT</t>
         </is>
       </c>
     </row>
@@ -486,12 +486,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Blue Valentine</t>
+          <t>타임캡슐</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NMIXX</t>
+          <t>다비치</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Golden</t>
+          <t>Blue Valentine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HUNTR/X, EJAE, AUDREY NUNA, REI AMI, KPop Demon Hunters Cast</t>
+          <t>NMIXX</t>
         </is>
       </c>
     </row>
@@ -516,12 +516,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ONE MORE TIME</t>
+          <t>Golden</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t>HUNTR/X, EJAE, AUDREY NUNA, REI AMI, KPop Demon Hunters Cast</t>
         </is>
       </c>
     </row>
@@ -636,12 +636,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Soda Pop</t>
+          <t>FAMOUS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>KPop Demon Hunters Cast, Danny Chung, Saja Boys, Andrew Choi, Neckwav, Kevin Woo, samUIL Lee</t>
+          <t>ALLDAY PROJECT</t>
         </is>
       </c>
     </row>
@@ -651,12 +651,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FAMOUS</t>
+          <t>사랑하게 될 거야</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t>한로로</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>사랑하게 될 거야</t>
+          <t>힙합보단 사랑, 사랑보단 돈 (Feat. 베이식)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>한로로</t>
+          <t>노아주다 (noahjooda)</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>시작의 아이 ❍</t>
+          <t>Soda Pop</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>박다혜, 마크툽 (MAKTUB)</t>
+          <t>KPop Demon Hunters Cast, Danny Chung, Saja Boys, Andrew Choi, Neckwav, Kevin Woo, samUIL Lee</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME (feat. 태양, 대성)</t>
+          <t>toxic till the end</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>로제 (ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -726,12 +726,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>한번 더 이별</t>
+          <t>시작의 아이 ❍</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>박다혜, 마크툽 (MAKTUB)</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>HOME SWEET HOME (feat. 태양, 대성)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>너에게 닿기를</t>
+          <t>IRIS OUT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10CM</t>
+          <t>Kenshi Yonezu</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>toxic till the end</t>
+          <t>내게 사랑이 뭐냐고 물어본다면</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>내게 사랑이 뭐냐고 물어본다면</t>
+          <t>한번 더 이별</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>이창섭</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>IRIS OUT</t>
+          <t>XOXZ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Kenshi Yonezu</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -816,12 +816,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>XOXZ</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
@@ -831,12 +831,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>Hollywood Action</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Rich Man</t>
+          <t>너에게 닿기를</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>10CM</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hollywood Action</t>
+          <t>Rich Man</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -876,12 +876,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>운명 (2025)</t>
+          <t>천상연</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>먼데이 키즈, 이이경</t>
+          <t>이창섭</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>너의 모든 순간</t>
+          <t>Whiplash</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>나는 반딧불</t>
+          <t>운명 (2025)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>먼데이 키즈, 이이경</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>너의 모든 순간</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>성시경</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>청춘만화</t>
+          <t>사랑은 늘 도망가</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -966,12 +966,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>시작의 아이</t>
+          <t>나는 반딧불</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>마크툽 (MAKTUB)</t>
+          <t>황가람</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>청춘만화</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -996,12 +996,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>like JENNIE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>APT.</t>
+          <t>FOCUS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ), Bruno Mars</t>
+          <t>Hearts2Hearts (하츠투하츠)</t>
         </is>
       </c>
     </row>
@@ -1026,12 +1026,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Flower</t>
+          <t>하얀 그리움</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>오반(OVAN)</t>
+          <t>프로미스나인</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>All I Want for Christmas Is You</t>
+          <t>HAPPY</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mariah Carey</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>시작의 아이</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>마크툽 (MAKTUB)</t>
         </is>
       </c>
     </row>
@@ -1071,12 +1071,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>소나기</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>이클립스 (ECLIPSE)</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>like JENNIE</t>
+          <t>APT.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>로제 (ROSÉ), Bruno Mars</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>Flower</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>다영 (DAYOUNG)</t>
+          <t>오반(OVAN)</t>
         </is>
       </c>
     </row>
@@ -1116,12 +1116,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Never Ending Story</t>
+          <t>body</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>다영 (DAYOUNG)</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1146,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>힙합보단 사랑, 사랑보단 돈 (Feat. 베이식)</t>
+          <t>순간을 영원처럼</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>노아주다 (noahjooda)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>폴킴</t>
         </is>
       </c>
     </row>
@@ -1176,12 +1176,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FOCUS</t>
+          <t>한 페이지가 될 수 있게</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Hearts2Hearts (하츠투하츠)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,762 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>Die With A Smile</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Lady Gaga, Bruno Mars</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Never Ending Story</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>아이유</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>우리들의 블루스</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>임영웅</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Welcome to the Show</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DAY6 (데이식스)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>NOT CUTE ANYMORE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>아일릿(ILLIT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>REBEL HEART</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>IVE (아이브)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>예뻤어</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DAY6 (데이식스)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>가만히 눈을 감고</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>DK(디셈버)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>All I Want for Christmas Is You</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Mariah Carey</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>한로로</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Love wins all</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>아이유</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Dirty Work</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>aespa</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>LOOK AT ME</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ALLDAY PROJECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TOO BAD (feat. Anderson .Paak)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>G-DRAGON</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>청혼하지 않을 이유를 못 찾았어</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>이무진</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>STYLE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Hearts2Hearts (하츠투하츠)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>WICKED</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ALLDAY PROJECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>다정히 내 이름을 부르면</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>경서예지, 전건호</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>나였으면</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>나윤권, 도경수(D.O.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>주저하는 연인들을 위해</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>잔나비</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>빌려온 고양이 (Do the Dance)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>아일릿(ILLIT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Zoo (From "Zootopia 2"/Soundtrack Version)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Disney, Shakira</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>첫 만남은 계획대로 되지 않아</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>TWS (투어스)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>BBUU!</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>PLAVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>인사</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>범진</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>다시 만날 수 있을까</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>임영웅</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Magnetic</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>아일릿(ILLIT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>그래 늦지 않았어 (2025)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>아샤트리, 이예은, 전건호</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>사랑인가 봐</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>멜로망스</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Dash</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PLAVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>MY LOVE(2025)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>이예은, 아샤트리, 전건호</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Fame</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>RIIZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Supernova</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>aespa</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>헤어지자 말해요</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>박재정</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>들꽃이 될게요</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>임영웅</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>에피소드</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>이무진</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>I AM</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>IVE (아이브)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Seven (feat. Latto) - Clean Ver.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>정국</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>그댈 위한 멜로디</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>임영웅</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>슬픈 초대장</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>순순희(지환)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>눈사람</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>정승환</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>눈이 오잖아(Feat.헤이즈)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>이무진</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>비의 랩소디</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>임재현</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Your Idol</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>KPop Demon Hunters Cast, Danny Chung, Saja Boys, Andrew Choi, Neckwav, Kevin Woo, samUIL Lee</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>고민중독</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>QWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>DRIP</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>BABYMONSTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>OVERDRIVE</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>TWS (투어스)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Hype Boy</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>NewJeans</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>비가 와서</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>임영웅</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Santa Tell Me</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ariana Grande</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>PO￦ER</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>

--- a/melon_final_df.xlsx
+++ b/melon_final_df.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>곡 명</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Artist</t>
+          <t>아티스트 명</t>
         </is>
       </c>
     </row>
@@ -651,12 +651,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>사랑하게 될 거야</t>
+          <t>모르시나요(PROD.로코베리)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>한로로</t>
+          <t>조째즈</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>모르시나요(PROD.로코베리)</t>
+          <t>사랑하게 될 거야</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>조째즈</t>
+          <t>한로로</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>힙합보단 사랑, 사랑보단 돈 (Feat. 베이식)</t>
+          <t>Soda Pop</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>노아주다 (noahjooda)</t>
+          <t>KPop Demon Hunters Cast, Danny Chung, Saja Boys, Andrew Choi, Neckwav, Kevin Woo, samUIL Lee</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Soda Pop</t>
+          <t>시작의 아이 ❍</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>KPop Demon Hunters Cast, Danny Chung, Saja Boys, Andrew Choi, Neckwav, Kevin Woo, samUIL Lee</t>
+          <t>박다혜, 마크툽 (MAKTUB)</t>
         </is>
       </c>
     </row>
@@ -726,12 +726,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>시작의 아이 ❍</t>
+          <t>힙합보단 사랑, 사랑보단 돈 (Feat. 베이식)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>박다혜, 마크툽 (MAKTUB)</t>
+          <t>노아주다 (noahjooda)</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME (feat. 태양, 대성)</t>
+          <t>한번 더 이별</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>이창섭</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>IRIS OUT</t>
+          <t>HOME SWEET HOME (feat. 태양, 대성)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kenshi Yonezu</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>한번 더 이별</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
@@ -816,12 +816,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>너에게 닿기를</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>10CM</t>
         </is>
       </c>
     </row>
@@ -831,12 +831,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hollywood Action</t>
+          <t>IRIS OUT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>Kenshi Yonezu</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>너에게 닿기를</t>
+          <t>천상연</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10CM</t>
+          <t>이창섭</t>
         </is>
       </c>
     </row>
@@ -876,12 +876,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>사랑은 늘 도망가</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>Hollywood Action</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>Whiplash</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>오늘만 I LOVE YOU</t>
+          <t>나는 반딧불</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>황가람</t>
         </is>
       </c>
     </row>
@@ -966,12 +966,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>나는 반딧불</t>
+          <t>LOOK AT ME</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>ALLDAY PROJECT</t>
         </is>
       </c>
     </row>
@@ -996,12 +996,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>like JENNIE</t>
+          <t>시작의 아이</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>마크툽 (MAKTUB)</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FOCUS</t>
+          <t>소나기</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Hearts2Hearts (하츠투하츠)</t>
+          <t>이클립스 (ECLIPSE)</t>
         </is>
       </c>
     </row>
@@ -1026,12 +1026,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>하얀 그리움</t>
+          <t>오늘만 I LOVE YOU</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>프로미스나인</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>like JENNIE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
     </row>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>시작의 아이</t>
+          <t>HAPPY</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>마크툽 (MAKTUB)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1071,12 +1071,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>순간을 영원처럼</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>APT.</t>
+          <t>FOCUS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ), Bruno Mars</t>
+          <t>Hearts2Hearts (하츠투하츠)</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Flower</t>
+          <t>하얀 그리움</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>오반(OVAN)</t>
+          <t>프로미스나인</t>
         </is>
       </c>
     </row>
@@ -1116,12 +1116,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>다영 (DAYOUNG)</t>
+          <t>폴킴</t>
         </is>
       </c>
     </row>
@@ -1131,12 +1131,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>APT.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>너드커넥션 (Nerd Connection)</t>
+          <t>로제 (ROSÉ), Bruno Mars</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1146,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>순간을 영원처럼</t>
+          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>너드커넥션 (Nerd Connection)</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>Flower</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>오반(OVAN)</t>
         </is>
       </c>
     </row>
@@ -1176,12 +1176,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>body</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>다영 (DAYOUNG)</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Die With A Smile</t>
+          <t>Never Ending Story</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lady Gaga, Bruno Mars</t>
+          <t>아이유</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Never Ending Story</t>
+          <t>가만히 눈을 감고</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>DK(디셈버)</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>한 페이지가 될 수 있게</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1236,12 +1236,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>Die With A Smile</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>Lady Gaga, Bruno Mars</t>
         </is>
       </c>
     </row>
@@ -1251,12 +1251,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NOT CUTE ANYMORE</t>
+          <t>우리들의 블루스</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1266,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>REBEL HEART</t>
+          <t>NOT CUTE ANYMORE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>나였으면</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>나윤권, 도경수(D.O.)</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>가만히 눈을 감고</t>
+          <t>REBEL HEART</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DK(디셈버)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>All I Want for Christmas Is You</t>
+          <t>예뻤어</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mariah Carey</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1326,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0+0</t>
+          <t>All I Want for Christmas Is You</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>한로로</t>
+          <t>Mariah Carey</t>
         </is>
       </c>
     </row>
@@ -1356,12 +1356,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Dirty Work</t>
+          <t>Welcome to the Show</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1371,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LOOK AT ME</t>
+          <t>Dirty Work</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TOO BAD (feat. Anderson .Paak)</t>
+          <t>청혼하지 않을 이유를 못 찾았어</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -1401,12 +1401,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>청혼하지 않을 이유를 못 찾았어</t>
+          <t>TOO BAD (feat. Anderson .Paak)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -1416,12 +1416,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>STYLE</t>
+          <t>다정히 내 이름을 부르면</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Hearts2Hearts (하츠투하츠)</t>
+          <t>경서예지, 전건호</t>
         </is>
       </c>
     </row>
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>WICKED</t>
+          <t>그래 늦지 않았어 (2025)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t>아샤트리, 이예은, 전건호</t>
         </is>
       </c>
     </row>
@@ -1446,12 +1446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>다정히 내 이름을 부르면</t>
+          <t>다시 만날 수 있을까</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>경서예지, 전건호</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>나였으면</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>나윤권, 도경수(D.O.)</t>
+          <t>잔나비</t>
         </is>
       </c>
     </row>
@@ -1476,12 +1476,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>주저하는 연인들을 위해</t>
+          <t>WICKED</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t>ALLDAY PROJECT</t>
         </is>
       </c>
     </row>
@@ -1491,12 +1491,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>빌려온 고양이 (Do the Dance)</t>
+          <t>들꽃이 될게요</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1506,12 +1506,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Zoo (From "Zootopia 2"/Soundtrack Version)</t>
+          <t>BBUU!</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Disney, Shakira</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>STYLE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>Hearts2Hearts (하츠투하츠)</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1536,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BBUU!</t>
+          <t>인사</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>범진</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>인사</t>
+          <t>그댈 위한 멜로디</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>범진</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1566,12 +1566,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>다시 만날 수 있을까</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>멜로망스</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Magnetic</t>
+          <t>빌려온 고양이 (Do the Dance)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1596,12 +1596,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>그래 늦지 않았어 (2025)</t>
+          <t>헤어지자 말해요</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>아샤트리, 이예은, 전건호</t>
+          <t>박재정</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>첫 만남은 계획대로 되지 않아</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>멜로망스</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
@@ -1626,12 +1626,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Dash</t>
+          <t>0+0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>한로로</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1641,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MY LOVE(2025)</t>
+          <t>Magnetic</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>이예은, 아샤트리, 전건호</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
     </row>
@@ -1656,12 +1656,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Fame</t>
+          <t>Dash</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -1671,12 +1671,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>MY LOVE(2025)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>이예은, 아샤트리, 전건호</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>헤어지자 말해요</t>
+          <t>Fame</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>박재정</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>들꽃이 될게요</t>
+          <t>에피소드</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>비가 와서</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Seven (feat. Latto) - Clean Ver.</t>
+          <t>눈사람</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>정국</t>
+          <t>정승환</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>그댈 위한 멜로디</t>
+          <t>Seven (feat. Latto) - Clean Ver.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>정국</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>슬픈 초대장</t>
+          <t>I AM</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>순순희(지환)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>눈사람</t>
+          <t>비의 랩소디</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>정승환</t>
+          <t>임재현</t>
         </is>
       </c>
     </row>
@@ -1806,12 +1806,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>눈이 오잖아(Feat.헤이즈)</t>
+          <t>슬픈 초대장</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>순순희(지환)</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>비의 랩소디</t>
+          <t>OVERDRIVE</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
@@ -1836,12 +1836,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Your Idol</t>
+          <t>고민중독</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>KPop Demon Hunters Cast, Danny Chung, Saja Boys, Andrew Choi, Neckwav, Kevin Woo, samUIL Lee</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -1851,12 +1851,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>천국보다 아름다운</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>OVERDRIVE</t>
+          <t>Zoo (From "Zootopia 2"/Soundtrack Version)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>Disney, Shakira</t>
         </is>
       </c>
     </row>
@@ -1896,12 +1896,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>눈이 오잖아(Feat.헤이즈)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -1911,12 +1911,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>비가 와서</t>
+          <t>Your Idol</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>KPop Demon Hunters Cast, Danny Chung, Saja Boys, Andrew Choi, Neckwav, Kevin Woo, samUIL Lee</t>
         </is>
       </c>
     </row>
@@ -1926,12 +1926,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Santa Tell Me</t>
+          <t>Hype Boy</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ariana Grande</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1941,12 +1941,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PO￦ER</t>
+          <t>답장을 보낸지</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
